--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2534157.494799465</v>
+        <v>2531780.867852098</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>72.94942429078201</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>125.2342876630362</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -716,13 +716,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>115.7664925502705</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>69.63957399764126</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>363.5377921948932</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>57.74751945339558</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,13 +1054,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>47.97968987670101</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>189.9578218484141</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>306.8754044652937</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>263.4094624865677</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>90.69811547110028</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>115.5971804138455</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>57.24347904695916</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>81.07546534818459</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892487</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>114.0764389318045</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>60.42721558712923</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I31" t="n">
-        <v>19.86507844888254</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3241,13 +3241,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>40.53421095546921</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>28.75188085812005</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>53.65602513333643</v>
       </c>
     </row>
     <row r="44">
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>94.05355358057936</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1713.412786206037</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>1344.450269265626</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>986.1845706588754</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>600.3963180606311</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>189.4104132710235</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>177.7460670357165</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.012626270159</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2100.012626270159</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2100.012626270159</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>2100.012626270159</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>2100.012626270159</v>
+        <v>918.0161179218651</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500113</v>
@@ -4416,16 +4416,16 @@
         <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341571</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1675.63996629486</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>833.0891146802707</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="C4" t="n">
-        <v>664.1529317523638</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D4" t="n">
-        <v>514.036292340028</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>366.1231987576349</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4513,25 +4513,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.862713590079</v>
+        <v>1416.9268625292</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.862713590079</v>
+        <v>1193.948381723935</v>
       </c>
       <c r="U4" t="n">
-        <v>1533.862713590079</v>
+        <v>904.8300442277731</v>
       </c>
       <c r="V4" t="n">
-        <v>1533.862713590079</v>
+        <v>650.1455560218863</v>
       </c>
       <c r="W4" t="n">
-        <v>1463.519709552058</v>
+        <v>650.1455560218863</v>
       </c>
       <c r="X4" t="n">
-        <v>1235.53015865404</v>
+        <v>422.1560051238689</v>
       </c>
       <c r="Y4" t="n">
-        <v>1014.73757951051</v>
+        <v>201.3634259803388</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>918.0161179218646</v>
+        <v>1110.088185601308</v>
       </c>
       <c r="C5" t="n">
-        <v>918.0161179218646</v>
+        <v>741.1256686608961</v>
       </c>
       <c r="D5" t="n">
-        <v>918.0161179218646</v>
+        <v>741.1256686608961</v>
       </c>
       <c r="E5" t="n">
-        <v>532.2278653236203</v>
+        <v>373.9157775549433</v>
       </c>
       <c r="F5" t="n">
-        <v>121.2419605340128</v>
+        <v>366.9702768057398</v>
       </c>
       <c r="G5" t="n">
-        <v>109.5776142987057</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>109.5776142987057</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
         <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
         <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.313418796629</v>
+        <v>2184.059060190804</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.250531453059</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W5" t="n">
-        <v>1291.481876182944</v>
+        <v>1500.227517577119</v>
       </c>
       <c r="X5" t="n">
-        <v>918.0161179218646</v>
+        <v>1500.227517577119</v>
       </c>
       <c r="Y5" t="n">
-        <v>918.0161179218646</v>
+        <v>1110.088185601308</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143495</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458213</v>
+        <v>932.4978103100996</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
         <v>2538.001278676482</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>417.3862008411927</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="C7" t="n">
-        <v>248.4500179132858</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D7" t="n">
-        <v>199.9856847044969</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312195</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4738,10 +4738,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4750,25 +4750,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1341.986125864408</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.233965749941</v>
+        <v>1119.007645059144</v>
       </c>
       <c r="U7" t="n">
-        <v>1337.233965749941</v>
+        <v>1119.007645059144</v>
       </c>
       <c r="V7" t="n">
-        <v>1337.233965749941</v>
+        <v>1119.007645059144</v>
       </c>
       <c r="W7" t="n">
-        <v>1047.81679571298</v>
+        <v>829.5904750221833</v>
       </c>
       <c r="X7" t="n">
-        <v>819.8272448149626</v>
+        <v>601.600924124166</v>
       </c>
       <c r="Y7" t="n">
-        <v>599.0346656714324</v>
+        <v>380.8083449806359</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>728.3028554854568</v>
+        <v>1200.95620828083</v>
       </c>
       <c r="C8" t="n">
-        <v>728.3028554854568</v>
+        <v>831.9936913404188</v>
       </c>
       <c r="D8" t="n">
-        <v>728.3028554854568</v>
+        <v>522.0185353148695</v>
       </c>
       <c r="E8" t="n">
-        <v>728.3028554854568</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F8" t="n">
-        <v>317.3169506958492</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
@@ -4805,10 +4805,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4835,19 +4835,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056584</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.50778578647</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.04202752539</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="Y8" t="n">
-        <v>1114.902695549579</v>
+        <v>1587.556048344952</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>815.1145481251085</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1178.376567084329</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.9138669598622</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C10" t="n">
-        <v>292.9776840319553</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D10" t="n">
-        <v>142.8610446196195</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
         <v>51.2467865680031</v>
@@ -4960,7 +4960,7 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4975,37 +4975,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>825.1371474485138</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>570.452659242627</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.344461831649</v>
+        <v>570.452659242627</v>
       </c>
       <c r="X10" t="n">
-        <v>864.354910933632</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y10" t="n">
-        <v>643.5623317901019</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5030,61 +5030,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327606</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
         <v>826.1405381797747</v>
@@ -5221,28 +5221,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947395</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741509</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704548</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806531</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.4026036630004</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="14">
@@ -5264,31 +5264,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191924</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.067041434951</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.043492616109</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5473,13 +5473,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5495,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>208.9886740942263</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797186</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745237</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5650,25 +5650,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5738,22 +5738,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.183521551621</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1655.562009178173</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5890,22 +5890,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5969,22 +5969,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5996,10 +5996,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6212,19 +6212,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6424,10 +6424,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
@@ -6461,7 +6461,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6470,10 +6470,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>572.9069687101817</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>422.7903292978459</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>422.7903292978459</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>422.7903292978459</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>255.5942300127259</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H31" t="n">
-        <v>113.8823988549239</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6686,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6789,16 +6789,16 @@
         <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="35">
@@ -6923,31 +6923,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7075,19 +7075,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7309,22 +7309,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>680.448174698413</v>
       </c>
       <c r="C43" t="n">
-        <v>513.8536007400712</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7612,7 +7612,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>862.0966395286528</v>
       </c>
     </row>
     <row r="44">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>270.906955875391</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>270.906955875391</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7849,7 +7849,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
   </sheetData>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>231.2582814363241</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>294.8344935184736</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780641</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621885</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>162.0073097921337</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>224.3355197601774</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>305.1601501039157</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>110.0033420516687</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>67.54000767002776</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>65.75554125013275</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="H19" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>84.99383243580201</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I31" t="n">
-        <v>61.40075786968299</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25129,13 +25129,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>164.9286282187583</v>
       </c>
     </row>
     <row r="44">
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>46.24115926564453</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>636307.3716448204</v>
+      </c>
+      <c r="C2" t="n">
+        <v>636307.37164482</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.3716448201</v>
       </c>
-      <c r="C2" t="n">
-        <v>636307.3716448201</v>
-      </c>
-      <c r="D2" t="n">
-        <v>636307.3716448202</v>
-      </c>
       <c r="E2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="F2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="H2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="G2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625538.6147597546</v>
-      </c>
       <c r="I2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="J2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="K2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="L2" t="n">
         <v>625538.6147597546</v>
       </c>
       <c r="M2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="N2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="O2" t="n">
-        <v>625538.6147597547</v>
-      </c>
       <c r="P2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597546</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26424,37 +26424,37 @@
         <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707401</v>
+        <v>6897.424496707366</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707401</v>
+        <v>6897.424496707387</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707372</v>
+        <v>6897.424496707368</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707383</v>
       </c>
       <c r="J4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="K4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6897.424496707372</v>
+      </c>
+      <c r="M4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="L4" t="n">
-        <v>6897.424496707361</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.424496707359</v>
-      </c>
       <c r="N4" t="n">
-        <v>6897.424496707354</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707382</v>
+        <v>6897.424496707368</v>
       </c>
       <c r="P4" t="n">
         <v>6897.42449670736</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-703291.911202569</v>
+        <v>-703291.9112025687</v>
       </c>
       <c r="C6" t="n">
+        <v>411459.8723733503</v>
+      </c>
+      <c r="D6" t="n">
         <v>411459.8723733504</v>
       </c>
-      <c r="D6" t="n">
-        <v>411459.8723733505</v>
-      </c>
       <c r="E6" t="n">
-        <v>10033.21881459421</v>
+        <v>9998.480889158731</v>
       </c>
       <c r="F6" t="n">
-        <v>517518.6604391407</v>
+        <v>517483.9225137047</v>
       </c>
       <c r="G6" t="n">
-        <v>517518.6604391402</v>
+        <v>517483.9225137047</v>
       </c>
       <c r="H6" t="n">
-        <v>517518.6604391402</v>
+        <v>517483.9225137046</v>
       </c>
       <c r="I6" t="n">
-        <v>517518.6604391401</v>
+        <v>517483.9225137045</v>
       </c>
       <c r="J6" t="n">
-        <v>349913.4826291578</v>
+        <v>349878.7447037221</v>
       </c>
       <c r="K6" t="n">
-        <v>517518.6604391405</v>
+        <v>517483.9225137045</v>
       </c>
       <c r="L6" t="n">
-        <v>517518.6604391401</v>
+        <v>517483.9225137044</v>
       </c>
       <c r="M6" t="n">
-        <v>384911.3667102136</v>
+        <v>384876.628784778</v>
       </c>
       <c r="N6" t="n">
-        <v>517518.6604391403</v>
+        <v>517483.9225137045</v>
       </c>
       <c r="O6" t="n">
-        <v>517518.6604391402</v>
+        <v>517483.9225137046</v>
       </c>
       <c r="P6" t="n">
-        <v>517518.6604391402</v>
+        <v>517483.9225137044</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="D3" t="n">
         <v>934.0648921175392</v>
-      </c>
-      <c r="D3" t="n">
-        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241348</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>309.7844173726986</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>175.7842648993691</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551289</v>
@@ -27585,19 +27585,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>78.89596781146703</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>216.8834243389497</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>18.39257787736858</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>7.962393219074919</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>100.6357831415114</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,7 +27789,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27822,10 +27822,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>4.704638513323431</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>47.80763715538922</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>148.1382402863863</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>55.73584717546889</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,7 +28026,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>110.1124749751916</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>-3.283086236927361e-12</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,7 +31841,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
@@ -31850,19 +31850,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>567.4250434254225</v>
       </c>
       <c r="O12" t="n">
-        <v>333.9544784328822</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32075,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>538.5853835133125</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319857</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>241.387751759078</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -32330,13 +32330,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,28 +32549,28 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>624.2063432190395</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>709.4760096096878</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32786,7 +32786,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32956,7 +32956,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
         <v>926.5868626460027</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
@@ -33032,7 +33032,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>506.5665344352332</v>
+        <v>510.682889626564</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,13 +33041,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,13 +33263,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33509,7 +33509,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>746.4857620875799</v>
+        <v>473.8581708471803</v>
       </c>
       <c r="O33" t="n">
         <v>142.5962444444444</v>
@@ -33518,10 +33518,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33971,10 +33971,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>651.5998000366021</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,22 +34442,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34466,10 +34466,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34784,19 +34784,19 @@
         <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>622.455381029198</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>544.5140226420058</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>24.58388860977091</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215489</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>528.9386420741741</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,13 +35030,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>522.0158803980275</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>436.0833313420891</v>
       </c>
       <c r="O12" t="n">
-        <v>191.3582339884378</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>396.4513495912942</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875412</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.5501250924113</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,13 +35978,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>485.6519634391653</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>578.1342975263545</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36604,7 +36604,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>364.4325005132149</v>
+        <v>368.5488557045456</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,13 +36689,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37157,7 +37157,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>615.1440500042467</v>
+        <v>342.516458763847</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,10 +37166,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37558,13 +37558,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>509.0035555921577</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38114,10 +38114,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
